--- a/County numbers IN.KY.OH.xlsx
+++ b/County numbers IN.KY.OH.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/connorboone/Desktop/econ/github/project/connor-and-brandon/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C99488A7-3C5E-804B-B270-65C95DC4D94E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE38985E-5111-684B-AF78-685CB06AA53A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" xr2:uid="{9C0C7DE1-B0A5-8E40-894A-5163DC3120E9}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14420" activeTab="1" xr2:uid="{9C0C7DE1-B0A5-8E40-894A-5163DC3120E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CountyID" sheetId="1" r:id="rId1"/>
+    <sheet name="1990 Income" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="528">
   <si>
     <t>OH</t>
   </si>
@@ -699,13 +700,931 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>1989 Income Data</t>
+  </si>
+  <si>
+    <t>Adams County, IN</t>
+  </si>
+  <si>
+    <t>Allen County, IN</t>
+  </si>
+  <si>
+    <t>Bartholomew County, IN</t>
+  </si>
+  <si>
+    <t>Benton County, IN</t>
+  </si>
+  <si>
+    <t>Blackford County, IN</t>
+  </si>
+  <si>
+    <t>Boone County, IN</t>
+  </si>
+  <si>
+    <t>Brown County, IN</t>
+  </si>
+  <si>
+    <t>Carroll County, IN</t>
+  </si>
+  <si>
+    <t>Cass County, IN</t>
+  </si>
+  <si>
+    <t>Clark County, IN</t>
+  </si>
+  <si>
+    <t>Clay County, IN</t>
+  </si>
+  <si>
+    <t>Clinton County, IN</t>
+  </si>
+  <si>
+    <t>Crawford County, IN</t>
+  </si>
+  <si>
+    <t>Daviess County, IN</t>
+  </si>
+  <si>
+    <t>Dearborn County, IN</t>
+  </si>
+  <si>
+    <t>Decatur County, IN</t>
+  </si>
+  <si>
+    <t>De Kalb County, IN</t>
+  </si>
+  <si>
+    <t>Delaware County, IN</t>
+  </si>
+  <si>
+    <t>Dubois County, IN</t>
+  </si>
+  <si>
+    <t>Elkhart County, IN</t>
+  </si>
+  <si>
+    <t>Fayette County, IN</t>
+  </si>
+  <si>
+    <t>Floyd County, IN</t>
+  </si>
+  <si>
+    <t>Fountain County, IN</t>
+  </si>
+  <si>
+    <t>Franklin County, IN</t>
+  </si>
+  <si>
+    <t>Fulton County, IN</t>
+  </si>
+  <si>
+    <t>Gibson County, IN</t>
+  </si>
+  <si>
+    <t>Grant County, IN</t>
+  </si>
+  <si>
+    <t>Greene County, IN</t>
+  </si>
+  <si>
+    <t>Hamilton County, IN</t>
+  </si>
+  <si>
+    <t>Hancock County, IN</t>
+  </si>
+  <si>
+    <t>Harrison County, IN</t>
+  </si>
+  <si>
+    <t>Hendricks County, IN</t>
+  </si>
+  <si>
+    <t>Henry County, IN</t>
+  </si>
+  <si>
+    <t>Howard County, IN</t>
+  </si>
+  <si>
+    <t>Huntington County, IN</t>
+  </si>
+  <si>
+    <t>Jackson County, IN</t>
+  </si>
+  <si>
+    <t>Jasper County, IN</t>
+  </si>
+  <si>
+    <t>Jay County, IN</t>
+  </si>
+  <si>
+    <t>Jefferson County, IN</t>
+  </si>
+  <si>
+    <t>Jennings County, IN</t>
+  </si>
+  <si>
+    <t>Johnson County, IN</t>
+  </si>
+  <si>
+    <t>Knox County, IN</t>
+  </si>
+  <si>
+    <t>Kosciusko County, IN</t>
+  </si>
+  <si>
+    <t>Lagrange County, IN</t>
+  </si>
+  <si>
+    <t>Lake County, IN</t>
+  </si>
+  <si>
+    <t>La Porte County, IN</t>
+  </si>
+  <si>
+    <t>Lawrence County, IN</t>
+  </si>
+  <si>
+    <t>Madison County, IN</t>
+  </si>
+  <si>
+    <t>Marion County, IN</t>
+  </si>
+  <si>
+    <t>Marshall County, IN</t>
+  </si>
+  <si>
+    <t>Martin County, IN</t>
+  </si>
+  <si>
+    <t>Miami County, IN</t>
+  </si>
+  <si>
+    <t>Monroe County, IN</t>
+  </si>
+  <si>
+    <t>Montgomery County, IN</t>
+  </si>
+  <si>
+    <t>Morgan County, IN</t>
+  </si>
+  <si>
+    <t>Newton County, IN</t>
+  </si>
+  <si>
+    <t>Noble County, IN</t>
+  </si>
+  <si>
+    <t>Ohio County, IN</t>
+  </si>
+  <si>
+    <t>Orange County, IN</t>
+  </si>
+  <si>
+    <t>Owen County, IN</t>
+  </si>
+  <si>
+    <t>Parke County, IN</t>
+  </si>
+  <si>
+    <t>Perry County, IN</t>
+  </si>
+  <si>
+    <t>Pike County, IN</t>
+  </si>
+  <si>
+    <t>Porter County, IN</t>
+  </si>
+  <si>
+    <t>Posey County, IN</t>
+  </si>
+  <si>
+    <t>Pulaski County, IN</t>
+  </si>
+  <si>
+    <t>Putnam County, IN</t>
+  </si>
+  <si>
+    <t>Randolph County, IN</t>
+  </si>
+  <si>
+    <t>Ripley County, IN</t>
+  </si>
+  <si>
+    <t>Rush County, IN</t>
+  </si>
+  <si>
+    <t>St. Joseph County, IN</t>
+  </si>
+  <si>
+    <t>Scott County, IN</t>
+  </si>
+  <si>
+    <t>Shelby County, IN</t>
+  </si>
+  <si>
+    <t>Spencer County, IN</t>
+  </si>
+  <si>
+    <t>Starke County, IN</t>
+  </si>
+  <si>
+    <t>Steuben County, IN</t>
+  </si>
+  <si>
+    <t>Sullivan County, IN</t>
+  </si>
+  <si>
+    <t>Switzerland County, IN</t>
+  </si>
+  <si>
+    <t>Tippecanoe County, IN</t>
+  </si>
+  <si>
+    <t>Tipton County, IN</t>
+  </si>
+  <si>
+    <t>Union County, IN</t>
+  </si>
+  <si>
+    <t>Vanderburgh County, IN</t>
+  </si>
+  <si>
+    <t>Vermillion County, IN</t>
+  </si>
+  <si>
+    <t>Vigo County, IN</t>
+  </si>
+  <si>
+    <t>Wabash County, IN</t>
+  </si>
+  <si>
+    <t>Warren County, IN</t>
+  </si>
+  <si>
+    <t>Warrick County, IN</t>
+  </si>
+  <si>
+    <t>Washington County, IN</t>
+  </si>
+  <si>
+    <t>Wayne County, IN</t>
+  </si>
+  <si>
+    <t>Wells County, IN</t>
+  </si>
+  <si>
+    <t>White County, IN</t>
+  </si>
+  <si>
+    <t>Whitley County, IN</t>
+  </si>
+  <si>
+    <t>County/State</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>INDIANA</t>
+  </si>
+  <si>
+    <t>Adair County, KY</t>
+  </si>
+  <si>
+    <t>Allen County, KY</t>
+  </si>
+  <si>
+    <t>Anderson County, KY</t>
+  </si>
+  <si>
+    <t>Ballard County, KY</t>
+  </si>
+  <si>
+    <t>Barren County, KY</t>
+  </si>
+  <si>
+    <t>Bath County, KY</t>
+  </si>
+  <si>
+    <t>Bell County, KY</t>
+  </si>
+  <si>
+    <t>Boone County, KY</t>
+  </si>
+  <si>
+    <t>Bourbon County, KY</t>
+  </si>
+  <si>
+    <t>Boyd County, KY</t>
+  </si>
+  <si>
+    <t>Boyle County, KY</t>
+  </si>
+  <si>
+    <t>Bracken County, KY</t>
+  </si>
+  <si>
+    <t>Breathitt County, KY</t>
+  </si>
+  <si>
+    <t>Breckinridge County, KY</t>
+  </si>
+  <si>
+    <t>Bullitt County, KY</t>
+  </si>
+  <si>
+    <t>Butler County, KY</t>
+  </si>
+  <si>
+    <t>Caldwell County, KY</t>
+  </si>
+  <si>
+    <t>Calloway County, KY</t>
+  </si>
+  <si>
+    <t>Campbell County, KY</t>
+  </si>
+  <si>
+    <t>Carlisle County, KY</t>
+  </si>
+  <si>
+    <t>Carroll County, KY</t>
+  </si>
+  <si>
+    <t>Carter County, KY</t>
+  </si>
+  <si>
+    <t>Casey County, KY</t>
+  </si>
+  <si>
+    <t>Christian County, KY</t>
+  </si>
+  <si>
+    <t>Clark County, KY</t>
+  </si>
+  <si>
+    <t>Clay County, KY</t>
+  </si>
+  <si>
+    <t>Clinton County, KY</t>
+  </si>
+  <si>
+    <t>Crittenden County, KY</t>
+  </si>
+  <si>
+    <t>Cumberland County, KY</t>
+  </si>
+  <si>
+    <t>Daviess County, KY</t>
+  </si>
+  <si>
+    <t>Edmonson County, KY</t>
+  </si>
+  <si>
+    <t>Elliott County, KY</t>
+  </si>
+  <si>
+    <t>Estill County, KY</t>
+  </si>
+  <si>
+    <t>Fayette County, KY</t>
+  </si>
+  <si>
+    <t>Fleming County, KY</t>
+  </si>
+  <si>
+    <t>Floyd County, KY</t>
+  </si>
+  <si>
+    <t>Franklin County, KY</t>
+  </si>
+  <si>
+    <t>Fulton County, KY</t>
+  </si>
+  <si>
+    <t>Gallatin County, KY</t>
+  </si>
+  <si>
+    <t>Garrard County, KY</t>
+  </si>
+  <si>
+    <t>Grant County, KY</t>
+  </si>
+  <si>
+    <t>Graves County, KY</t>
+  </si>
+  <si>
+    <t>Grayson County, KY</t>
+  </si>
+  <si>
+    <t>Green County, KY</t>
+  </si>
+  <si>
+    <t>Greenup County, KY</t>
+  </si>
+  <si>
+    <t>Hancock County, KY</t>
+  </si>
+  <si>
+    <t>Hardin County, KY</t>
+  </si>
+  <si>
+    <t>Harlan County, KY</t>
+  </si>
+  <si>
+    <t>Harrison County, KY</t>
+  </si>
+  <si>
+    <t>Hart County, KY</t>
+  </si>
+  <si>
+    <t>Henderson County, KY</t>
+  </si>
+  <si>
+    <t>Henry County, KY</t>
+  </si>
+  <si>
+    <t>Hickman County, KY</t>
+  </si>
+  <si>
+    <t>Hopkins County, KY</t>
+  </si>
+  <si>
+    <t>Jackson County, KY</t>
+  </si>
+  <si>
+    <t>Jefferson County, KY</t>
+  </si>
+  <si>
+    <t>Jessamine County, KY</t>
+  </si>
+  <si>
+    <t>Johnson County, KY</t>
+  </si>
+  <si>
+    <t>Kenton County, KY</t>
+  </si>
+  <si>
+    <t>Knott County, KY</t>
+  </si>
+  <si>
+    <t>Knox County, KY</t>
+  </si>
+  <si>
+    <t>Larue County, KY</t>
+  </si>
+  <si>
+    <t>Laurel County, KY</t>
+  </si>
+  <si>
+    <t>Lawrence County, KY</t>
+  </si>
+  <si>
+    <t>Lee County, KY</t>
+  </si>
+  <si>
+    <t>Leslie County, KY</t>
+  </si>
+  <si>
+    <t>Letcher County, KY</t>
+  </si>
+  <si>
+    <t>Lewis County, KY</t>
+  </si>
+  <si>
+    <t>Lincoln County, KY</t>
+  </si>
+  <si>
+    <t>Livingston County, KY</t>
+  </si>
+  <si>
+    <t>Logan County, KY</t>
+  </si>
+  <si>
+    <t>Lyon County, KY</t>
+  </si>
+  <si>
+    <t>McCracken County, KY</t>
+  </si>
+  <si>
+    <t>McCreary County, KY</t>
+  </si>
+  <si>
+    <t>McLean County, KY</t>
+  </si>
+  <si>
+    <t>Madison County, KY</t>
+  </si>
+  <si>
+    <t>Magoffin County, KY</t>
+  </si>
+  <si>
+    <t>Marion County, KY</t>
+  </si>
+  <si>
+    <t>Marshall County, KY</t>
+  </si>
+  <si>
+    <t>Martin County, KY</t>
+  </si>
+  <si>
+    <t>Mason County, KY</t>
+  </si>
+  <si>
+    <t>Meade County, KY</t>
+  </si>
+  <si>
+    <t>Menifee County, KY</t>
+  </si>
+  <si>
+    <t>Mercer County, KY</t>
+  </si>
+  <si>
+    <t>Metcalfe County, KY</t>
+  </si>
+  <si>
+    <t>Monroe County, KY</t>
+  </si>
+  <si>
+    <t>Montgomery County, KY</t>
+  </si>
+  <si>
+    <t>Morgan County, KY</t>
+  </si>
+  <si>
+    <t>Muhlenberg County, KY</t>
+  </si>
+  <si>
+    <t>Nelson County, KY</t>
+  </si>
+  <si>
+    <t>Nicholas County, KY</t>
+  </si>
+  <si>
+    <t>Ohio County, KY</t>
+  </si>
+  <si>
+    <t>Oldham County, KY</t>
+  </si>
+  <si>
+    <t>Owen County, KY</t>
+  </si>
+  <si>
+    <t>Owsley County, KY</t>
+  </si>
+  <si>
+    <t>Pendleton County, KY</t>
+  </si>
+  <si>
+    <t>Perry County, KY</t>
+  </si>
+  <si>
+    <t>Pike County, KY</t>
+  </si>
+  <si>
+    <t>Powell County, KY</t>
+  </si>
+  <si>
+    <t>Pulaski County, KY</t>
+  </si>
+  <si>
+    <t>Robertson County, KY</t>
+  </si>
+  <si>
+    <t>Rockcastle County, KY</t>
+  </si>
+  <si>
+    <t>Rowan County, KY</t>
+  </si>
+  <si>
+    <t>Russell County, KY</t>
+  </si>
+  <si>
+    <t>Scott County, KY</t>
+  </si>
+  <si>
+    <t>Shelby County, KY</t>
+  </si>
+  <si>
+    <t>Simpson County, KY</t>
+  </si>
+  <si>
+    <t>Spencer County, KY</t>
+  </si>
+  <si>
+    <t>Taylor County, KY</t>
+  </si>
+  <si>
+    <t>Todd County, KY</t>
+  </si>
+  <si>
+    <t>Trigg County, KY</t>
+  </si>
+  <si>
+    <t>Trimble County, KY</t>
+  </si>
+  <si>
+    <t>Union County, KY</t>
+  </si>
+  <si>
+    <t>Warren County, KY</t>
+  </si>
+  <si>
+    <t>Washington County, KY</t>
+  </si>
+  <si>
+    <t>Wayne County, KY</t>
+  </si>
+  <si>
+    <t>Webster County, KY</t>
+  </si>
+  <si>
+    <t>Whitley County, KY</t>
+  </si>
+  <si>
+    <t>KENTUCKY</t>
+  </si>
+  <si>
+    <t>Adams County, OH</t>
+  </si>
+  <si>
+    <t>Allen County, OH</t>
+  </si>
+  <si>
+    <t>Ashland County, OH</t>
+  </si>
+  <si>
+    <t>Ashtabula County, OH</t>
+  </si>
+  <si>
+    <t>Athens County, OH</t>
+  </si>
+  <si>
+    <t>Auglaize County, OH</t>
+  </si>
+  <si>
+    <t>Belmont County, OH</t>
+  </si>
+  <si>
+    <t>Brown County, OH</t>
+  </si>
+  <si>
+    <t>Butler County, OH</t>
+  </si>
+  <si>
+    <t>Carroll County, OH</t>
+  </si>
+  <si>
+    <t>Champaign County, OH</t>
+  </si>
+  <si>
+    <t>Clark County, OH</t>
+  </si>
+  <si>
+    <t>Clermont County, OH</t>
+  </si>
+  <si>
+    <t>Clinton County, OH</t>
+  </si>
+  <si>
+    <t>Columbiana County, OH</t>
+  </si>
+  <si>
+    <t>Coshocton County, OH</t>
+  </si>
+  <si>
+    <t>Crawford County, OH</t>
+  </si>
+  <si>
+    <t>Cuyahoga County, OH</t>
+  </si>
+  <si>
+    <t>Darke County, OH</t>
+  </si>
+  <si>
+    <t>Defiance County, OH</t>
+  </si>
+  <si>
+    <t>Delaware County, OH</t>
+  </si>
+  <si>
+    <t>Erie County, OH</t>
+  </si>
+  <si>
+    <t>Fairfield County, OH</t>
+  </si>
+  <si>
+    <t>Fayette County, OH</t>
+  </si>
+  <si>
+    <t>Franklin County, OH</t>
+  </si>
+  <si>
+    <t>Fulton County, OH</t>
+  </si>
+  <si>
+    <t>Gallia County, OH</t>
+  </si>
+  <si>
+    <t>Geauga County, OH</t>
+  </si>
+  <si>
+    <t>Greene County, OH</t>
+  </si>
+  <si>
+    <t>Guernsey County, OH</t>
+  </si>
+  <si>
+    <t>Hamilton County, OH</t>
+  </si>
+  <si>
+    <t>Hancock County, OH</t>
+  </si>
+  <si>
+    <t>Hardin County, OH</t>
+  </si>
+  <si>
+    <t>Harrison County, OH</t>
+  </si>
+  <si>
+    <t>Henry County, OH</t>
+  </si>
+  <si>
+    <t>Highland County, OH</t>
+  </si>
+  <si>
+    <t>Hocking County, OH</t>
+  </si>
+  <si>
+    <t>Holmes County, OH</t>
+  </si>
+  <si>
+    <t>Huron County, OH</t>
+  </si>
+  <si>
+    <t>Jackson County, OH</t>
+  </si>
+  <si>
+    <t>Jefferson County, OH</t>
+  </si>
+  <si>
+    <t>Knox County, OH</t>
+  </si>
+  <si>
+    <t>Lake County, OH</t>
+  </si>
+  <si>
+    <t>Lawrence County, OH</t>
+  </si>
+  <si>
+    <t>Licking County, OH</t>
+  </si>
+  <si>
+    <t>Logan County, OH</t>
+  </si>
+  <si>
+    <t>Lorain County, OH</t>
+  </si>
+  <si>
+    <t>Lucas County, OH</t>
+  </si>
+  <si>
+    <t>Madison County, OH</t>
+  </si>
+  <si>
+    <t>Mahoning County, OH</t>
+  </si>
+  <si>
+    <t>Marion County, OH</t>
+  </si>
+  <si>
+    <t>Medina County, OH</t>
+  </si>
+  <si>
+    <t>Meigs County, OH</t>
+  </si>
+  <si>
+    <t>Mercer County, OH</t>
+  </si>
+  <si>
+    <t>Miami County, OH</t>
+  </si>
+  <si>
+    <t>Monroe County, OH</t>
+  </si>
+  <si>
+    <t>Montgomery County, OH</t>
+  </si>
+  <si>
+    <t>Morgan County, OH</t>
+  </si>
+  <si>
+    <t>Morrow County, OH</t>
+  </si>
+  <si>
+    <t>Muskingum County, OH</t>
+  </si>
+  <si>
+    <t>Noble County, OH</t>
+  </si>
+  <si>
+    <t>Ottawa County, OH</t>
+  </si>
+  <si>
+    <t>Paulding County, OH</t>
+  </si>
+  <si>
+    <t>Perry County, OH</t>
+  </si>
+  <si>
+    <t>Pickaway County, OH</t>
+  </si>
+  <si>
+    <t>Pike County, OH</t>
+  </si>
+  <si>
+    <t>Portage County, OH</t>
+  </si>
+  <si>
+    <t>Preble County, OH</t>
+  </si>
+  <si>
+    <t>Putnam County, OH</t>
+  </si>
+  <si>
+    <t>Richland County, OH</t>
+  </si>
+  <si>
+    <t>Ross County, OH</t>
+  </si>
+  <si>
+    <t>Sandusky County, OH</t>
+  </si>
+  <si>
+    <t>Scioto County, OH</t>
+  </si>
+  <si>
+    <t>Seneca County, OH</t>
+  </si>
+  <si>
+    <t>Shelby County, OH</t>
+  </si>
+  <si>
+    <t>Stark County, OH</t>
+  </si>
+  <si>
+    <t>Summit County, OH</t>
+  </si>
+  <si>
+    <t>Trumbull County, OH</t>
+  </si>
+  <si>
+    <t>Tuscarawas County, OH</t>
+  </si>
+  <si>
+    <t>Union County, OH</t>
+  </si>
+  <si>
+    <t>Van Wert County, OH</t>
+  </si>
+  <si>
+    <t>Vinton County, OH</t>
+  </si>
+  <si>
+    <t>Warren County, OH</t>
+  </si>
+  <si>
+    <t>Washington County, OH</t>
+  </si>
+  <si>
+    <t>Wayne County, OH</t>
+  </si>
+  <si>
+    <t>Williams County, OH</t>
+  </si>
+  <si>
+    <t>Wood County, OH</t>
+  </si>
+  <si>
+    <t>Wyandot County, OH</t>
+  </si>
+  <si>
+    <t>OHIO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -724,6 +1643,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -746,10 +1672,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,7 +1997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6E4CC1-91AE-A949-89D8-FB0B745DCDEE}">
   <dimension ref="A1:F121"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A69" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -3162,4 +4093,2986 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D18F04-88A1-F646-94FB-EAFD7F2B0F21}">
+  <dimension ref="A1:I120"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C1" t="s">
+        <v>319</v>
+      </c>
+      <c r="D1" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" t="s">
+        <v>438</v>
+      </c>
+      <c r="G1" t="s">
+        <v>223</v>
+      </c>
+      <c r="I1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" t="s">
+        <v>316</v>
+      </c>
+      <c r="H2" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B3" s="5">
+        <v>11655</v>
+      </c>
+      <c r="C3" s="7">
+        <v>31095</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="4">
+        <v>8596</v>
+      </c>
+      <c r="F3" s="6">
+        <v>15360</v>
+      </c>
+      <c r="G3" t="s">
+        <v>439</v>
+      </c>
+      <c r="H3" s="4">
+        <v>8407</v>
+      </c>
+      <c r="I3" s="6">
+        <v>25371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="5">
+        <v>14631</v>
+      </c>
+      <c r="C4" s="7">
+        <v>300836</v>
+      </c>
+      <c r="D4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E4" s="4">
+        <v>8361</v>
+      </c>
+      <c r="F4" s="6">
+        <v>14628</v>
+      </c>
+      <c r="G4" t="s">
+        <v>440</v>
+      </c>
+      <c r="H4" s="4">
+        <v>11830</v>
+      </c>
+      <c r="I4" s="6">
+        <v>109755</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" s="5">
+        <v>14216</v>
+      </c>
+      <c r="C5" s="7">
+        <v>63657</v>
+      </c>
+      <c r="D5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E5" s="4">
+        <v>12320</v>
+      </c>
+      <c r="F5" s="6">
+        <v>14571</v>
+      </c>
+      <c r="G5" t="s">
+        <v>441</v>
+      </c>
+      <c r="H5" s="4">
+        <v>11623</v>
+      </c>
+      <c r="I5" s="6">
+        <v>47507</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B6" s="5">
+        <v>12024</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9441</v>
+      </c>
+      <c r="D6" t="s">
+        <v>323</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10262</v>
+      </c>
+      <c r="F6" s="6">
+        <v>7902</v>
+      </c>
+      <c r="G6" t="s">
+        <v>442</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10672</v>
+      </c>
+      <c r="I6" s="6">
+        <v>99821</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B7" s="5">
+        <v>11151</v>
+      </c>
+      <c r="C7" s="7">
+        <v>14067</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" s="4">
+        <v>9876</v>
+      </c>
+      <c r="F7" s="6">
+        <v>34001</v>
+      </c>
+      <c r="G7" t="s">
+        <v>443</v>
+      </c>
+      <c r="H7" s="4">
+        <v>9170</v>
+      </c>
+      <c r="I7" s="6">
+        <v>59549</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="5">
+        <v>16674</v>
+      </c>
+      <c r="C8" s="7">
+        <v>38147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E8" s="4">
+        <v>8034</v>
+      </c>
+      <c r="F8" s="6">
+        <v>9692</v>
+      </c>
+      <c r="G8" t="s">
+        <v>444</v>
+      </c>
+      <c r="H8" s="4">
+        <v>12398</v>
+      </c>
+      <c r="I8" s="6">
+        <v>44585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="B9" s="5">
+        <v>13048</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14080</v>
+      </c>
+      <c r="D9" t="s">
+        <v>326</v>
+      </c>
+      <c r="E9" s="4">
+        <v>7037</v>
+      </c>
+      <c r="F9" s="6">
+        <v>31506</v>
+      </c>
+      <c r="G9" t="s">
+        <v>445</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10329</v>
+      </c>
+      <c r="I9" s="6">
+        <v>71074</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B10" s="5">
+        <v>12165</v>
+      </c>
+      <c r="C10" s="7">
+        <v>18809</v>
+      </c>
+      <c r="D10" t="s">
+        <v>327</v>
+      </c>
+      <c r="E10" s="4">
+        <v>13576</v>
+      </c>
+      <c r="F10" s="6">
+        <v>57589</v>
+      </c>
+      <c r="G10" t="s">
+        <v>446</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10498</v>
+      </c>
+      <c r="I10" s="6">
+        <v>34966</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="B11" s="5">
+        <v>11860</v>
+      </c>
+      <c r="C11" s="7">
+        <v>38413</v>
+      </c>
+      <c r="D11" t="s">
+        <v>328</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10858</v>
+      </c>
+      <c r="F11" s="6">
+        <v>19236</v>
+      </c>
+      <c r="G11" t="s">
+        <v>447</v>
+      </c>
+      <c r="H11" s="4">
+        <v>13947</v>
+      </c>
+      <c r="I11" s="6">
+        <v>291479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="5">
+        <v>12068</v>
+      </c>
+      <c r="C12" s="7">
+        <v>87777</v>
+      </c>
+      <c r="D12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E12" s="4">
+        <v>12012</v>
+      </c>
+      <c r="F12" s="6">
+        <v>51150</v>
+      </c>
+      <c r="G12" t="s">
+        <v>448</v>
+      </c>
+      <c r="H12" s="4">
+        <v>10693</v>
+      </c>
+      <c r="I12" s="6">
+        <v>26521</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="5">
+        <v>10538</v>
+      </c>
+      <c r="C13" s="7">
+        <v>24705</v>
+      </c>
+      <c r="D13" t="s">
+        <v>330</v>
+      </c>
+      <c r="E13" s="4">
+        <v>11029</v>
+      </c>
+      <c r="F13" s="6">
+        <v>25641</v>
+      </c>
+      <c r="G13" t="s">
+        <v>449</v>
+      </c>
+      <c r="H13" s="4">
+        <v>12539</v>
+      </c>
+      <c r="I13" s="6">
+        <v>36019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B14" s="5">
+        <v>11849</v>
+      </c>
+      <c r="C14" s="7">
+        <v>30974</v>
+      </c>
+      <c r="D14" t="s">
+        <v>331</v>
+      </c>
+      <c r="E14" s="4">
+        <v>9297</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7766</v>
+      </c>
+      <c r="G14" t="s">
+        <v>450</v>
+      </c>
+      <c r="H14" s="4">
+        <v>12348</v>
+      </c>
+      <c r="I14" s="6">
+        <v>147548</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B15" s="5">
+        <v>8837</v>
+      </c>
+      <c r="C15" s="7">
+        <v>9914</v>
+      </c>
+      <c r="D15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="4">
+        <v>6905</v>
+      </c>
+      <c r="F15" s="6">
+        <v>15703</v>
+      </c>
+      <c r="G15" t="s">
+        <v>451</v>
+      </c>
+      <c r="H15" s="4">
+        <v>13338</v>
+      </c>
+      <c r="I15" s="6">
+        <v>150187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B16" s="5">
+        <v>10176</v>
+      </c>
+      <c r="C16" s="7">
+        <v>27533</v>
+      </c>
+      <c r="D16" t="s">
+        <v>333</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9157</v>
+      </c>
+      <c r="F16" s="6">
+        <v>16312</v>
+      </c>
+      <c r="G16" t="s">
+        <v>452</v>
+      </c>
+      <c r="H16" s="4">
+        <v>11736</v>
+      </c>
+      <c r="I16" s="6">
+        <v>35415</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B17" s="5">
+        <v>12542</v>
+      </c>
+      <c r="C17" s="7">
+        <v>38835</v>
+      </c>
+      <c r="D17" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10907</v>
+      </c>
+      <c r="F17" s="6">
+        <v>47567</v>
+      </c>
+      <c r="G17" t="s">
+        <v>453</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10567</v>
+      </c>
+      <c r="I17" s="6">
+        <v>108276</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B18" s="5">
+        <v>11930</v>
+      </c>
+      <c r="C18" s="7">
+        <v>23645</v>
+      </c>
+      <c r="D18" t="s">
+        <v>335</v>
+      </c>
+      <c r="E18" s="4">
+        <v>8108</v>
+      </c>
+      <c r="F18" s="6">
+        <v>11245</v>
+      </c>
+      <c r="G18" t="s">
+        <v>454</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10685</v>
+      </c>
+      <c r="I18" s="6">
+        <v>35427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B19" s="5">
+        <v>12665</v>
+      </c>
+      <c r="C19" s="7">
+        <v>35324</v>
+      </c>
+      <c r="D19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E19" s="4">
+        <v>9658</v>
+      </c>
+      <c r="F19" s="6">
+        <v>13232</v>
+      </c>
+      <c r="G19" t="s">
+        <v>455</v>
+      </c>
+      <c r="H19" s="4">
+        <v>11401</v>
+      </c>
+      <c r="I19" s="6">
+        <v>47870</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B20" s="5">
+        <v>12168</v>
+      </c>
+      <c r="C20" s="7">
+        <v>119659</v>
+      </c>
+      <c r="D20" t="s">
+        <v>337</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10434</v>
+      </c>
+      <c r="F20" s="6">
+        <v>30735</v>
+      </c>
+      <c r="G20" t="s">
+        <v>456</v>
+      </c>
+      <c r="H20" s="4">
+        <v>14912</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1412140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="5">
+        <v>12942</v>
+      </c>
+      <c r="C21" s="7">
+        <v>36616</v>
+      </c>
+      <c r="D21" t="s">
+        <v>338</v>
+      </c>
+      <c r="E21" s="4">
+        <v>12603</v>
+      </c>
+      <c r="F21" s="6">
+        <v>83866</v>
+      </c>
+      <c r="G21" t="s">
+        <v>457</v>
+      </c>
+      <c r="H21" s="4">
+        <v>11693</v>
+      </c>
+      <c r="I21" s="6">
+        <v>53619</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B22" s="5">
+        <v>13825</v>
+      </c>
+      <c r="C22" s="7">
+        <v>156198</v>
+      </c>
+      <c r="D22" t="s">
+        <v>339</v>
+      </c>
+      <c r="E22" s="4">
+        <v>9735</v>
+      </c>
+      <c r="F22" s="6">
+        <v>5238</v>
+      </c>
+      <c r="G22" t="s">
+        <v>458</v>
+      </c>
+      <c r="H22" s="4">
+        <v>12545</v>
+      </c>
+      <c r="I22" s="6">
+        <v>39350</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="5">
+        <v>11577</v>
+      </c>
+      <c r="C23" s="7">
+        <v>26015</v>
+      </c>
+      <c r="D23" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10202</v>
+      </c>
+      <c r="F23" s="6">
+        <v>9292</v>
+      </c>
+      <c r="G23" t="s">
+        <v>459</v>
+      </c>
+      <c r="H23" s="4">
+        <v>17437</v>
+      </c>
+      <c r="I23" s="6">
+        <v>66929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B24" s="5">
+        <v>13203</v>
+      </c>
+      <c r="C24" s="7">
+        <v>64404</v>
+      </c>
+      <c r="D24" t="s">
+        <v>341</v>
+      </c>
+      <c r="E24" s="4">
+        <v>7996</v>
+      </c>
+      <c r="F24" s="6">
+        <v>24340</v>
+      </c>
+      <c r="G24" t="s">
+        <v>460</v>
+      </c>
+      <c r="H24" s="4">
+        <v>13833</v>
+      </c>
+      <c r="I24" s="6">
+        <v>76779</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B25" s="5">
+        <v>11470</v>
+      </c>
+      <c r="C25" s="7">
+        <v>17808</v>
+      </c>
+      <c r="D25" t="s">
+        <v>342</v>
+      </c>
+      <c r="E25" s="4">
+        <v>7719</v>
+      </c>
+      <c r="F25" s="6">
+        <v>14211</v>
+      </c>
+      <c r="G25" t="s">
+        <v>461</v>
+      </c>
+      <c r="H25" s="4">
+        <v>13609</v>
+      </c>
+      <c r="I25" s="6">
+        <v>103461</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B26" s="5">
+        <v>11295</v>
+      </c>
+      <c r="C26" s="7">
+        <v>19580</v>
+      </c>
+      <c r="D26" t="s">
+        <v>343</v>
+      </c>
+      <c r="E26" s="4">
+        <v>9708</v>
+      </c>
+      <c r="F26" s="6">
+        <v>68941</v>
+      </c>
+      <c r="G26" t="s">
+        <v>462</v>
+      </c>
+      <c r="H26" s="4">
+        <v>10300</v>
+      </c>
+      <c r="I26" s="6">
+        <v>27466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B27" s="5">
+        <v>11164</v>
+      </c>
+      <c r="C27" s="7">
+        <v>18840</v>
+      </c>
+      <c r="D27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27" s="4">
+        <v>11655</v>
+      </c>
+      <c r="F27" s="6">
+        <v>29496</v>
+      </c>
+      <c r="G27" t="s">
+        <v>463</v>
+      </c>
+      <c r="H27" s="4">
+        <v>14907</v>
+      </c>
+      <c r="I27" s="6">
+        <v>961437</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B28" s="5">
+        <v>11615</v>
+      </c>
+      <c r="C28" s="7">
+        <v>31913</v>
+      </c>
+      <c r="D28" t="s">
+        <v>345</v>
+      </c>
+      <c r="E28" s="4">
+        <v>6084</v>
+      </c>
+      <c r="F28" s="6">
+        <v>21746</v>
+      </c>
+      <c r="G28" t="s">
+        <v>464</v>
+      </c>
+      <c r="H28" s="4">
+        <v>12467</v>
+      </c>
+      <c r="I28" s="6">
+        <v>38498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="5">
+        <v>12308</v>
+      </c>
+      <c r="C29" s="7">
+        <v>74169</v>
+      </c>
+      <c r="D29" t="s">
+        <v>346</v>
+      </c>
+      <c r="E29" s="4">
+        <v>6838</v>
+      </c>
+      <c r="F29" s="6">
+        <v>9135</v>
+      </c>
+      <c r="G29" t="s">
+        <v>465</v>
+      </c>
+      <c r="H29" s="4">
+        <v>9711</v>
+      </c>
+      <c r="I29" s="6">
+        <v>30954</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B30" s="5">
+        <v>10798</v>
+      </c>
+      <c r="C30" s="7">
+        <v>30410</v>
+      </c>
+      <c r="D30" t="s">
+        <v>347</v>
+      </c>
+      <c r="E30" s="4">
+        <v>9807</v>
+      </c>
+      <c r="F30" s="6">
+        <v>9196</v>
+      </c>
+      <c r="G30" t="s">
+        <v>466</v>
+      </c>
+      <c r="H30" s="4">
+        <v>17587</v>
+      </c>
+      <c r="I30" s="6">
+        <v>81129</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B31" s="5">
+        <v>20426</v>
+      </c>
+      <c r="C31" s="7">
+        <v>108936</v>
+      </c>
+      <c r="D31" t="s">
+        <v>348</v>
+      </c>
+      <c r="E31" s="4">
+        <v>6858</v>
+      </c>
+      <c r="F31" s="6">
+        <v>6784</v>
+      </c>
+      <c r="G31" t="s">
+        <v>467</v>
+      </c>
+      <c r="H31" s="4">
+        <v>14384</v>
+      </c>
+      <c r="I31" s="6">
+        <v>136731</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B32" s="5">
+        <v>15059</v>
+      </c>
+      <c r="C32" s="7">
+        <v>45527</v>
+      </c>
+      <c r="D32" t="s">
+        <v>349</v>
+      </c>
+      <c r="E32" s="4">
+        <v>11456</v>
+      </c>
+      <c r="F32" s="6">
+        <v>87189</v>
+      </c>
+      <c r="G32" t="s">
+        <v>468</v>
+      </c>
+      <c r="H32" s="4">
+        <v>9929</v>
+      </c>
+      <c r="I32" s="6">
+        <v>39024</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33" s="5">
+        <v>11159</v>
+      </c>
+      <c r="C33" s="7">
+        <v>29890</v>
+      </c>
+      <c r="D33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" s="4">
+        <v>7181</v>
+      </c>
+      <c r="F33" s="6">
+        <v>10357</v>
+      </c>
+      <c r="G33" t="s">
+        <v>469</v>
+      </c>
+      <c r="H33" s="4">
+        <v>15354</v>
+      </c>
+      <c r="I33" s="6">
+        <v>866228</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B34" s="5">
+        <v>15526</v>
+      </c>
+      <c r="C34" s="7">
+        <v>75717</v>
+      </c>
+      <c r="D34" t="s">
+        <v>351</v>
+      </c>
+      <c r="E34" s="4">
+        <v>6823</v>
+      </c>
+      <c r="F34" s="6">
+        <v>6455</v>
+      </c>
+      <c r="G34" t="s">
+        <v>470</v>
+      </c>
+      <c r="H34" s="4">
+        <v>14239</v>
+      </c>
+      <c r="I34" s="6">
+        <v>65536</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B35" s="5">
+        <v>11914</v>
+      </c>
+      <c r="C35" s="7">
+        <v>48139</v>
+      </c>
+      <c r="D35" t="s">
+        <v>352</v>
+      </c>
+      <c r="E35" s="4">
+        <v>7474</v>
+      </c>
+      <c r="F35" s="6">
+        <v>14614</v>
+      </c>
+      <c r="G35" t="s">
+        <v>471</v>
+      </c>
+      <c r="H35" s="4">
+        <v>10957</v>
+      </c>
+      <c r="I35" s="6">
+        <v>31111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B36" s="5">
+        <v>14346</v>
+      </c>
+      <c r="C36" s="7">
+        <v>80827</v>
+      </c>
+      <c r="D36" t="s">
+        <v>353</v>
+      </c>
+      <c r="E36" s="4">
+        <v>14962</v>
+      </c>
+      <c r="F36" s="6">
+        <v>225366</v>
+      </c>
+      <c r="G36" t="s">
+        <v>472</v>
+      </c>
+      <c r="H36" s="4">
+        <v>9146</v>
+      </c>
+      <c r="I36" s="6">
+        <v>16085</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B37" s="5">
+        <v>12509</v>
+      </c>
+      <c r="C37" s="7">
+        <v>35427</v>
+      </c>
+      <c r="D37" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" s="4">
+        <v>8950</v>
+      </c>
+      <c r="F37" s="6">
+        <v>12292</v>
+      </c>
+      <c r="G37" t="s">
+        <v>473</v>
+      </c>
+      <c r="H37" s="4">
+        <v>12115</v>
+      </c>
+      <c r="I37" s="6">
+        <v>29108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" s="5">
+        <v>11562</v>
+      </c>
+      <c r="C38" s="7">
+        <v>37730</v>
+      </c>
+      <c r="D38" t="s">
+        <v>355</v>
+      </c>
+      <c r="E38" s="4">
+        <v>7922</v>
+      </c>
+      <c r="F38" s="6">
+        <v>43586</v>
+      </c>
+      <c r="G38" t="s">
+        <v>474</v>
+      </c>
+      <c r="H38" s="4">
+        <v>9848</v>
+      </c>
+      <c r="I38" s="6">
+        <v>35728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="5">
+        <v>11256</v>
+      </c>
+      <c r="C39" s="7">
+        <v>24960</v>
+      </c>
+      <c r="D39" t="s">
+        <v>356</v>
+      </c>
+      <c r="E39" s="4">
+        <v>13383</v>
+      </c>
+      <c r="F39" s="6">
+        <v>43781</v>
+      </c>
+      <c r="G39" t="s">
+        <v>475</v>
+      </c>
+      <c r="H39" s="4">
+        <v>10265</v>
+      </c>
+      <c r="I39" s="6">
+        <v>25533</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B40" s="5">
+        <v>10331</v>
+      </c>
+      <c r="C40" s="7">
+        <v>21512</v>
+      </c>
+      <c r="D40" t="s">
+        <v>357</v>
+      </c>
+      <c r="E40" s="4">
+        <v>9820</v>
+      </c>
+      <c r="F40" s="6">
+        <v>8271</v>
+      </c>
+      <c r="G40" t="s">
+        <v>476</v>
+      </c>
+      <c r="H40" s="4">
+        <v>9191</v>
+      </c>
+      <c r="I40" s="6">
+        <v>32849</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B41" s="5">
+        <v>11631</v>
+      </c>
+      <c r="C41" s="7">
+        <v>29797</v>
+      </c>
+      <c r="D41" t="s">
+        <v>358</v>
+      </c>
+      <c r="E41" s="4">
+        <v>9717</v>
+      </c>
+      <c r="F41" s="6">
+        <v>5393</v>
+      </c>
+      <c r="G41" t="s">
+        <v>477</v>
+      </c>
+      <c r="H41" s="4">
+        <v>11552</v>
+      </c>
+      <c r="I41" s="6">
+        <v>56240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B42" s="5">
+        <v>10333</v>
+      </c>
+      <c r="C42" s="7">
+        <v>23661</v>
+      </c>
+      <c r="D42" t="s">
+        <v>359</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10011</v>
+      </c>
+      <c r="F42" s="6">
+        <v>11579</v>
+      </c>
+      <c r="G42" t="s">
+        <v>478</v>
+      </c>
+      <c r="H42" s="4">
+        <v>9228</v>
+      </c>
+      <c r="I42" s="6">
+        <v>30230</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B43" s="5">
+        <v>14992</v>
+      </c>
+      <c r="C43" s="7">
+        <v>88109</v>
+      </c>
+      <c r="D43" t="s">
+        <v>360</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10356</v>
+      </c>
+      <c r="F43" s="6">
+        <v>15737</v>
+      </c>
+      <c r="G43" t="s">
+        <v>479</v>
+      </c>
+      <c r="H43" s="4">
+        <v>11001</v>
+      </c>
+      <c r="I43" s="6">
+        <v>80298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B44" s="5">
+        <v>11077</v>
+      </c>
+      <c r="C44" s="7">
+        <v>39884</v>
+      </c>
+      <c r="D44" t="s">
+        <v>361</v>
+      </c>
+      <c r="E44" s="4">
+        <v>10784</v>
+      </c>
+      <c r="F44" s="6">
+        <v>33550</v>
+      </c>
+      <c r="G44" t="s">
+        <v>480</v>
+      </c>
+      <c r="H44" s="4">
+        <v>10688</v>
+      </c>
+      <c r="I44" s="6">
+        <v>47473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="5">
+        <v>13323</v>
+      </c>
+      <c r="C45" s="7">
+        <v>65294</v>
+      </c>
+      <c r="D45" t="s">
+        <v>362</v>
+      </c>
+      <c r="E45" s="4">
+        <v>8767</v>
+      </c>
+      <c r="F45" s="6">
+        <v>21050</v>
+      </c>
+      <c r="G45" t="s">
+        <v>481</v>
+      </c>
+      <c r="H45" s="4">
+        <v>15465</v>
+      </c>
+      <c r="I45" s="6">
+        <v>215499</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B46" s="5">
+        <v>10011</v>
+      </c>
+      <c r="C46" s="7">
+        <v>29477</v>
+      </c>
+      <c r="D46" t="s">
+        <v>363</v>
+      </c>
+      <c r="E46" s="4">
+        <v>9177</v>
+      </c>
+      <c r="F46" s="6">
+        <v>10371</v>
+      </c>
+      <c r="G46" t="s">
+        <v>482</v>
+      </c>
+      <c r="H46" s="4">
+        <v>9336</v>
+      </c>
+      <c r="I46" s="6">
+        <v>61834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B47" s="5">
+        <v>12663</v>
+      </c>
+      <c r="C47" s="7">
+        <v>475594</v>
+      </c>
+      <c r="D47" t="s">
+        <v>364</v>
+      </c>
+      <c r="E47" s="4">
+        <v>11165</v>
+      </c>
+      <c r="F47" s="6">
+        <v>36742</v>
+      </c>
+      <c r="G47" t="s">
+        <v>483</v>
+      </c>
+      <c r="H47" s="4">
+        <v>12864</v>
+      </c>
+      <c r="I47" s="6">
+        <v>128300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B48" s="5">
+        <v>12973</v>
+      </c>
+      <c r="C48" s="7">
+        <v>107066</v>
+      </c>
+      <c r="D48" t="s">
+        <v>365</v>
+      </c>
+      <c r="E48" s="4">
+        <v>10891</v>
+      </c>
+      <c r="F48" s="6">
+        <v>7864</v>
+      </c>
+      <c r="G48" t="s">
+        <v>484</v>
+      </c>
+      <c r="H48" s="4">
+        <v>11741</v>
+      </c>
+      <c r="I48" s="6">
+        <v>42310</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B49" s="5">
+        <v>11492</v>
+      </c>
+      <c r="C49" s="7">
+        <v>42836</v>
+      </c>
+      <c r="D49" t="s">
+        <v>366</v>
+      </c>
+      <c r="E49" s="4">
+        <v>10624</v>
+      </c>
+      <c r="F49" s="6">
+        <v>89240</v>
+      </c>
+      <c r="G49" t="s">
+        <v>485</v>
+      </c>
+      <c r="H49" s="4">
+        <v>12733</v>
+      </c>
+      <c r="I49" s="6">
+        <v>271126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="5">
+        <v>12811</v>
+      </c>
+      <c r="C50" s="7">
+        <v>130669</v>
+      </c>
+      <c r="D50" t="s">
+        <v>367</v>
+      </c>
+      <c r="E50" s="4">
+        <v>7502</v>
+      </c>
+      <c r="F50" s="6">
+        <v>36574</v>
+      </c>
+      <c r="G50" t="s">
+        <v>486</v>
+      </c>
+      <c r="H50" s="4">
+        <v>13778</v>
+      </c>
+      <c r="I50" s="6">
+        <v>462361</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="B51" s="5">
+        <v>14614</v>
+      </c>
+      <c r="C51" s="7">
+        <v>797159</v>
+      </c>
+      <c r="D51" t="s">
+        <v>368</v>
+      </c>
+      <c r="E51" s="4">
+        <v>10271</v>
+      </c>
+      <c r="F51" s="6">
+        <v>16248</v>
+      </c>
+      <c r="G51" t="s">
+        <v>487</v>
+      </c>
+      <c r="H51" s="4">
+        <v>12053</v>
+      </c>
+      <c r="I51" s="6">
+        <v>37068</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B52" s="5">
+        <v>12428</v>
+      </c>
+      <c r="C52" s="7">
+        <v>42182</v>
+      </c>
+      <c r="D52" t="s">
+        <v>369</v>
+      </c>
+      <c r="E52" s="4">
+        <v>8142</v>
+      </c>
+      <c r="F52" s="6">
+        <v>14890</v>
+      </c>
+      <c r="G52" t="s">
+        <v>488</v>
+      </c>
+      <c r="H52" s="4">
+        <v>11668</v>
+      </c>
+      <c r="I52" s="6">
+        <v>264806</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="B53" s="5">
+        <v>10177</v>
+      </c>
+      <c r="C53" s="7">
+        <v>10369</v>
+      </c>
+      <c r="D53" t="s">
+        <v>370</v>
+      </c>
+      <c r="E53" s="4">
+        <v>12042</v>
+      </c>
+      <c r="F53" s="6">
+        <v>43044</v>
+      </c>
+      <c r="G53" t="s">
+        <v>489</v>
+      </c>
+      <c r="H53" s="4">
+        <v>11547</v>
+      </c>
+      <c r="I53" s="6">
+        <v>64274</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B54" s="5">
+        <v>10862</v>
+      </c>
+      <c r="C54" s="7">
+        <v>36897</v>
+      </c>
+      <c r="D54" t="s">
+        <v>371</v>
+      </c>
+      <c r="E54" s="4">
+        <v>10344</v>
+      </c>
+      <c r="F54" s="6">
+        <v>12823</v>
+      </c>
+      <c r="G54" t="s">
+        <v>490</v>
+      </c>
+      <c r="H54" s="4">
+        <v>14852</v>
+      </c>
+      <c r="I54" s="6">
+        <v>122354</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B55" s="5">
+        <v>12017</v>
+      </c>
+      <c r="C55" s="7">
+        <v>108978</v>
+      </c>
+      <c r="D55" t="s">
+        <v>372</v>
+      </c>
+      <c r="E55" s="4">
+        <v>9777</v>
+      </c>
+      <c r="F55" s="6">
+        <v>5566</v>
+      </c>
+      <c r="G55" t="s">
+        <v>491</v>
+      </c>
+      <c r="H55" s="4">
+        <v>8644</v>
+      </c>
+      <c r="I55" s="6">
+        <v>22987</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" s="5">
+        <v>12419</v>
+      </c>
+      <c r="C56" s="7">
+        <v>34436</v>
+      </c>
+      <c r="D56" t="s">
+        <v>373</v>
+      </c>
+      <c r="E56" s="4">
+        <v>10751</v>
+      </c>
+      <c r="F56" s="6">
+        <v>46126</v>
+      </c>
+      <c r="G56" t="s">
+        <v>492</v>
+      </c>
+      <c r="H56" s="4">
+        <v>11673</v>
+      </c>
+      <c r="I56" s="6">
+        <v>39443</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B57" s="5">
+        <v>13068</v>
+      </c>
+      <c r="C57" s="7">
+        <v>55920</v>
+      </c>
+      <c r="D57" t="s">
+        <v>374</v>
+      </c>
+      <c r="E57" s="4">
+        <v>7097</v>
+      </c>
+      <c r="F57" s="6">
+        <v>11955</v>
+      </c>
+      <c r="G57" t="s">
+        <v>493</v>
+      </c>
+      <c r="H57" s="4">
+        <v>13896</v>
+      </c>
+      <c r="I57" s="6">
+        <v>93182</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B58" s="5">
+        <v>11925</v>
+      </c>
+      <c r="C58" s="7">
+        <v>13551</v>
+      </c>
+      <c r="D58" t="s">
+        <v>375</v>
+      </c>
+      <c r="E58" s="4">
+        <v>14067</v>
+      </c>
+      <c r="F58" s="6">
+        <v>664937</v>
+      </c>
+      <c r="G58" t="s">
+        <v>494</v>
+      </c>
+      <c r="H58" s="4">
+        <v>9101</v>
+      </c>
+      <c r="I58" s="6">
+        <v>15497</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="5">
+        <v>11772</v>
+      </c>
+      <c r="C59" s="7">
+        <v>37877</v>
+      </c>
+      <c r="D59" t="s">
+        <v>376</v>
+      </c>
+      <c r="E59" s="4">
+        <v>11733</v>
+      </c>
+      <c r="F59" s="6">
+        <v>30508</v>
+      </c>
+      <c r="G59" t="s">
+        <v>495</v>
+      </c>
+      <c r="H59" s="4">
+        <v>14495</v>
+      </c>
+      <c r="I59" s="6">
+        <v>573809</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B60" s="5">
+        <v>10786</v>
+      </c>
+      <c r="C60" s="7">
+        <v>5315</v>
+      </c>
+      <c r="D60" t="s">
+        <v>377</v>
+      </c>
+      <c r="E60" s="4">
+        <v>8492</v>
+      </c>
+      <c r="F60" s="6">
+        <v>23248</v>
+      </c>
+      <c r="G60" t="s">
+        <v>496</v>
+      </c>
+      <c r="H60" s="4">
+        <v>9373</v>
+      </c>
+      <c r="I60" s="6">
+        <v>14194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="B61" s="5">
+        <v>9222</v>
+      </c>
+      <c r="C61" s="7">
+        <v>18409</v>
+      </c>
+      <c r="D61" t="s">
+        <v>378</v>
+      </c>
+      <c r="E61" s="4">
+        <v>13587</v>
+      </c>
+      <c r="F61" s="6">
+        <v>142031</v>
+      </c>
+      <c r="G61" t="s">
+        <v>497</v>
+      </c>
+      <c r="H61" s="4">
+        <v>10581</v>
+      </c>
+      <c r="I61" s="6">
+        <v>27749</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" s="5">
+        <v>10572</v>
+      </c>
+      <c r="C62" s="7">
+        <v>17281</v>
+      </c>
+      <c r="D62" t="s">
+        <v>379</v>
+      </c>
+      <c r="E62" s="4">
+        <v>6753</v>
+      </c>
+      <c r="F62" s="6">
+        <v>17906</v>
+      </c>
+      <c r="G62" t="s">
+        <v>498</v>
+      </c>
+      <c r="H62" s="4">
+        <v>10844</v>
+      </c>
+      <c r="I62" s="6">
+        <v>82068</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B63" s="5">
+        <v>11058</v>
+      </c>
+      <c r="C63" s="7">
+        <v>15410</v>
+      </c>
+      <c r="D63" t="s">
+        <v>380</v>
+      </c>
+      <c r="E63" s="4">
+        <v>7776</v>
+      </c>
+      <c r="F63" s="6">
+        <v>29676</v>
+      </c>
+      <c r="G63" t="s">
+        <v>499</v>
+      </c>
+      <c r="H63" s="4">
+        <v>9028</v>
+      </c>
+      <c r="I63" s="6">
+        <v>11336</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B64" s="5">
+        <v>10567</v>
+      </c>
+      <c r="C64" s="7">
+        <v>19107</v>
+      </c>
+      <c r="D64" t="s">
+        <v>381</v>
+      </c>
+      <c r="E64" s="4">
+        <v>10129</v>
+      </c>
+      <c r="F64" s="6">
+        <v>11679</v>
+      </c>
+      <c r="G64" t="s">
+        <v>500</v>
+      </c>
+      <c r="H64" s="4">
+        <v>14144</v>
+      </c>
+      <c r="I64" s="6">
+        <v>40029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B65" s="5">
+        <v>10934</v>
+      </c>
+      <c r="C65" s="7">
+        <v>12509</v>
+      </c>
+      <c r="D65" t="s">
+        <v>382</v>
+      </c>
+      <c r="E65" s="4">
+        <v>8879</v>
+      </c>
+      <c r="F65" s="6">
+        <v>43438</v>
+      </c>
+      <c r="G65" t="s">
+        <v>501</v>
+      </c>
+      <c r="H65" s="4">
+        <v>11254</v>
+      </c>
+      <c r="I65" s="6">
+        <v>20488</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B66" s="5">
+        <v>15059</v>
+      </c>
+      <c r="C66" s="7">
+        <v>128932</v>
+      </c>
+      <c r="D66" t="s">
+        <v>383</v>
+      </c>
+      <c r="E66" s="4">
+        <v>7809</v>
+      </c>
+      <c r="F66" s="6">
+        <v>13998</v>
+      </c>
+      <c r="G66" t="s">
+        <v>502</v>
+      </c>
+      <c r="H66" s="4">
+        <v>9247</v>
+      </c>
+      <c r="I66" s="6">
+        <v>31557</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B67" s="5">
+        <v>12879</v>
+      </c>
+      <c r="C67" s="7">
+        <v>25968</v>
+      </c>
+      <c r="D67" t="s">
+        <v>384</v>
+      </c>
+      <c r="E67" s="4">
+        <v>6869</v>
+      </c>
+      <c r="F67" s="6">
+        <v>7422</v>
+      </c>
+      <c r="G67" t="s">
+        <v>503</v>
+      </c>
+      <c r="H67" s="4">
+        <v>11490</v>
+      </c>
+      <c r="I67" s="6">
+        <v>48255</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B68" s="5">
+        <v>11107</v>
+      </c>
+      <c r="C68" s="7">
+        <v>12643</v>
+      </c>
+      <c r="D68" t="s">
+        <v>385</v>
+      </c>
+      <c r="E68" s="4">
+        <v>7190</v>
+      </c>
+      <c r="F68" s="6">
+        <v>13642</v>
+      </c>
+      <c r="G68" t="s">
+        <v>504</v>
+      </c>
+      <c r="H68" s="4">
+        <v>8958</v>
+      </c>
+      <c r="I68" s="6">
+        <v>24249</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B69" s="5">
+        <v>11154</v>
+      </c>
+      <c r="C69" s="7">
+        <v>30315</v>
+      </c>
+      <c r="D69" t="s">
+        <v>386</v>
+      </c>
+      <c r="E69" s="4">
+        <v>7340</v>
+      </c>
+      <c r="F69" s="6">
+        <v>27000</v>
+      </c>
+      <c r="G69" t="s">
+        <v>505</v>
+      </c>
+      <c r="H69" s="4">
+        <v>12509</v>
+      </c>
+      <c r="I69" s="6">
+        <v>142585</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B70" s="5">
+        <v>11241</v>
+      </c>
+      <c r="C70" s="7">
+        <v>27148</v>
+      </c>
+      <c r="D70" t="s">
+        <v>387</v>
+      </c>
+      <c r="E70" s="4">
+        <v>7477</v>
+      </c>
+      <c r="F70" s="6">
+        <v>13029</v>
+      </c>
+      <c r="G70" t="s">
+        <v>506</v>
+      </c>
+      <c r="H70" s="4">
+        <v>11466</v>
+      </c>
+      <c r="I70" s="6">
+        <v>40113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B71" s="5">
+        <v>11563</v>
+      </c>
+      <c r="C71" s="7">
+        <v>24616</v>
+      </c>
+      <c r="D71" t="s">
+        <v>388</v>
+      </c>
+      <c r="E71" s="4">
+        <v>8388</v>
+      </c>
+      <c r="F71" s="6">
+        <v>20045</v>
+      </c>
+      <c r="G71" t="s">
+        <v>507</v>
+      </c>
+      <c r="H71" s="4">
+        <v>11943</v>
+      </c>
+      <c r="I71" s="6">
+        <v>33819</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B72" s="5">
+        <v>10869</v>
+      </c>
+      <c r="C72" s="7">
+        <v>18129</v>
+      </c>
+      <c r="D72" t="s">
+        <v>389</v>
+      </c>
+      <c r="E72" s="4">
+        <v>10123</v>
+      </c>
+      <c r="F72" s="6">
+        <v>9062</v>
+      </c>
+      <c r="G72" t="s">
+        <v>508</v>
+      </c>
+      <c r="H72" s="4">
+        <v>12514</v>
+      </c>
+      <c r="I72" s="6">
+        <v>126137</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B73" s="5">
+        <v>13277</v>
+      </c>
+      <c r="C73" s="7">
+        <v>247052</v>
+      </c>
+      <c r="D73" t="s">
+        <v>390</v>
+      </c>
+      <c r="E73" s="4">
+        <v>9907</v>
+      </c>
+      <c r="F73" s="6">
+        <v>24416</v>
+      </c>
+      <c r="G73" t="s">
+        <v>509</v>
+      </c>
+      <c r="H73" s="4">
+        <v>10758</v>
+      </c>
+      <c r="I73" s="6">
+        <v>69330</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B74" s="5">
+        <v>9766</v>
+      </c>
+      <c r="C74" s="7">
+        <v>20991</v>
+      </c>
+      <c r="D74" t="s">
+        <v>391</v>
+      </c>
+      <c r="E74" s="4">
+        <v>10081</v>
+      </c>
+      <c r="F74" s="6">
+        <v>6624</v>
+      </c>
+      <c r="G74" t="s">
+        <v>510</v>
+      </c>
+      <c r="H74" s="4">
+        <v>12230</v>
+      </c>
+      <c r="I74" s="6">
+        <v>61963</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="5">
+        <v>12935</v>
+      </c>
+      <c r="C75" s="7">
+        <v>40307</v>
+      </c>
+      <c r="D75" t="s">
+        <v>392</v>
+      </c>
+      <c r="E75" s="4">
+        <v>12460</v>
+      </c>
+      <c r="F75" s="6">
+        <v>62879</v>
+      </c>
+      <c r="G75" t="s">
+        <v>511</v>
+      </c>
+      <c r="H75" s="4">
+        <v>9253</v>
+      </c>
+      <c r="I75" s="6">
+        <v>80327</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B76" s="5">
+        <v>11462</v>
+      </c>
+      <c r="C76" s="7">
+        <v>19490</v>
+      </c>
+      <c r="D76" t="s">
+        <v>393</v>
+      </c>
+      <c r="E76" s="4">
+        <v>5153</v>
+      </c>
+      <c r="F76" s="6">
+        <v>15603</v>
+      </c>
+      <c r="G76" t="s">
+        <v>512</v>
+      </c>
+      <c r="H76" s="4">
+        <v>11226</v>
+      </c>
+      <c r="I76" s="6">
+        <v>59733</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B77" s="5">
+        <v>9980</v>
+      </c>
+      <c r="C77" s="7">
+        <v>22747</v>
+      </c>
+      <c r="D77" t="s">
+        <v>394</v>
+      </c>
+      <c r="E77" s="4">
+        <v>9599</v>
+      </c>
+      <c r="F77" s="6">
+        <v>9628</v>
+      </c>
+      <c r="G77" t="s">
+        <v>513</v>
+      </c>
+      <c r="H77" s="4">
+        <v>13150</v>
+      </c>
+      <c r="I77" s="6">
+        <v>44915</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" s="5">
+        <v>12399</v>
+      </c>
+      <c r="C78" s="7">
+        <v>27446</v>
+      </c>
+      <c r="D78" t="s">
+        <v>395</v>
+      </c>
+      <c r="E78" s="4">
+        <v>10029</v>
+      </c>
+      <c r="F78" s="6">
+        <v>57508</v>
+      </c>
+      <c r="G78" t="s">
+        <v>514</v>
+      </c>
+      <c r="H78" s="4">
+        <v>13003</v>
+      </c>
+      <c r="I78" s="6">
+        <v>367585</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B79" s="5">
+        <v>10668</v>
+      </c>
+      <c r="C79" s="7">
+        <v>18993</v>
+      </c>
+      <c r="D79" t="s">
+        <v>396</v>
+      </c>
+      <c r="E79" s="4">
+        <v>6289</v>
+      </c>
+      <c r="F79" s="6">
+        <v>13077</v>
+      </c>
+      <c r="G79" t="s">
+        <v>515</v>
+      </c>
+      <c r="H79" s="4">
+        <v>14409</v>
+      </c>
+      <c r="I79" s="6">
+        <v>514990</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B80" s="5">
+        <v>10201</v>
+      </c>
+      <c r="C80" s="7">
+        <v>7738</v>
+      </c>
+      <c r="D80" t="s">
+        <v>397</v>
+      </c>
+      <c r="E80" s="4">
+        <v>9121</v>
+      </c>
+      <c r="F80" s="6">
+        <v>16499</v>
+      </c>
+      <c r="G80" t="s">
+        <v>516</v>
+      </c>
+      <c r="H80" s="4">
+        <v>12899</v>
+      </c>
+      <c r="I80" s="6">
+        <v>227813</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="5">
+        <v>12570</v>
+      </c>
+      <c r="C81" s="7">
+        <v>130598</v>
+      </c>
+      <c r="D81" t="s">
+        <v>398</v>
+      </c>
+      <c r="E81" s="4">
+        <v>11374</v>
+      </c>
+      <c r="F81" s="6">
+        <v>27205</v>
+      </c>
+      <c r="G81" t="s">
+        <v>517</v>
+      </c>
+      <c r="H81" s="4">
+        <v>11141</v>
+      </c>
+      <c r="I81" s="6">
+        <v>84090</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B82" s="5">
+        <v>13669</v>
+      </c>
+      <c r="C82" s="7">
+        <v>16119</v>
+      </c>
+      <c r="D82" t="s">
+        <v>399</v>
+      </c>
+      <c r="E82" s="4">
+        <v>8190</v>
+      </c>
+      <c r="F82" s="6">
+        <v>12526</v>
+      </c>
+      <c r="G82" t="s">
+        <v>518</v>
+      </c>
+      <c r="H82" s="4">
+        <v>13644</v>
+      </c>
+      <c r="I82" s="6">
+        <v>31969</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83" s="5">
+        <v>10700</v>
+      </c>
+      <c r="C83" s="7">
+        <v>6976</v>
+      </c>
+      <c r="D83" t="s">
+        <v>400</v>
+      </c>
+      <c r="E83" s="4">
+        <v>9888</v>
+      </c>
+      <c r="F83" s="6">
+        <v>16666</v>
+      </c>
+      <c r="G83" t="s">
+        <v>519</v>
+      </c>
+      <c r="H83" s="4">
+        <v>11913</v>
+      </c>
+      <c r="I83" s="6">
+        <v>30464</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B84" s="5">
+        <v>13434</v>
+      </c>
+      <c r="C84" s="7">
+        <v>165058</v>
+      </c>
+      <c r="D84" t="s">
+        <v>401</v>
+      </c>
+      <c r="E84" s="4">
+        <v>9234</v>
+      </c>
+      <c r="F84" s="6">
+        <v>24170</v>
+      </c>
+      <c r="G84" t="s">
+        <v>520</v>
+      </c>
+      <c r="H84" s="4">
+        <v>8826</v>
+      </c>
+      <c r="I84" s="6">
+        <v>11098</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B85" s="5">
+        <v>11217</v>
+      </c>
+      <c r="C85" s="7">
+        <v>16773</v>
+      </c>
+      <c r="D85" t="s">
+        <v>402</v>
+      </c>
+      <c r="E85" s="4">
+        <v>6911</v>
+      </c>
+      <c r="F85" s="6">
+        <v>5092</v>
+      </c>
+      <c r="G85" t="s">
+        <v>521</v>
+      </c>
+      <c r="H85" s="4">
+        <v>14615</v>
+      </c>
+      <c r="I85" s="6">
+        <v>113909</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B86" s="5">
+        <v>11973</v>
+      </c>
+      <c r="C86" s="7">
+        <v>106107</v>
+      </c>
+      <c r="D86" t="s">
+        <v>403</v>
+      </c>
+      <c r="E86" s="4">
+        <v>10821</v>
+      </c>
+      <c r="F86" s="6">
+        <v>19148</v>
+      </c>
+      <c r="G86" t="s">
+        <v>522</v>
+      </c>
+      <c r="H86" s="4">
+        <v>11438</v>
+      </c>
+      <c r="I86" s="6">
+        <v>62254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B87" s="5">
+        <v>11511</v>
+      </c>
+      <c r="C87" s="7">
+        <v>35069</v>
+      </c>
+      <c r="D87" t="s">
+        <v>404</v>
+      </c>
+      <c r="E87" s="4">
+        <v>7542</v>
+      </c>
+      <c r="F87" s="6">
+        <v>8963</v>
+      </c>
+      <c r="G87" t="s">
+        <v>523</v>
+      </c>
+      <c r="H87" s="4">
+        <v>12237</v>
+      </c>
+      <c r="I87" s="6">
+        <v>101461</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B88" s="5">
+        <v>10911</v>
+      </c>
+      <c r="C88" s="7">
+        <v>8176</v>
+      </c>
+      <c r="D88" t="s">
+        <v>405</v>
+      </c>
+      <c r="E88" s="4">
+        <v>8347</v>
+      </c>
+      <c r="F88" s="6">
+        <v>11401</v>
+      </c>
+      <c r="G88" t="s">
+        <v>524</v>
+      </c>
+      <c r="H88" s="4">
+        <v>12473</v>
+      </c>
+      <c r="I88" s="6">
+        <v>36956</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B89" s="5">
+        <v>14037</v>
+      </c>
+      <c r="C89" s="7">
+        <v>44920</v>
+      </c>
+      <c r="D89" t="s">
+        <v>406</v>
+      </c>
+      <c r="E89" s="4">
+        <v>9636</v>
+      </c>
+      <c r="F89" s="6">
+        <v>19561</v>
+      </c>
+      <c r="G89" t="s">
+        <v>525</v>
+      </c>
+      <c r="H89" s="4">
+        <v>13853</v>
+      </c>
+      <c r="I89" s="6">
+        <v>113269</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B90" s="5">
+        <v>10187</v>
+      </c>
+      <c r="C90" s="7">
+        <v>23717</v>
+      </c>
+      <c r="D90" t="s">
+        <v>407</v>
+      </c>
+      <c r="E90" s="4">
+        <v>6871</v>
+      </c>
+      <c r="F90" s="6">
+        <v>11648</v>
+      </c>
+      <c r="G90" t="s">
+        <v>526</v>
+      </c>
+      <c r="H90" s="4">
+        <v>11279</v>
+      </c>
+      <c r="I90" s="6">
+        <v>22254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B91" s="5">
+        <v>11535</v>
+      </c>
+      <c r="C91" s="7">
+        <v>71951</v>
+      </c>
+      <c r="D91" t="s">
+        <v>408</v>
+      </c>
+      <c r="E91" s="4">
+        <v>9779</v>
+      </c>
+      <c r="F91" s="6">
+        <v>31318</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B92" s="5">
+        <v>12765</v>
+      </c>
+      <c r="C92" s="7">
+        <v>25948</v>
+      </c>
+      <c r="D92" t="s">
+        <v>409</v>
+      </c>
+      <c r="E92" s="4">
+        <v>10165</v>
+      </c>
+      <c r="F92" s="6">
+        <v>29710</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B93" s="5">
+        <v>12111</v>
+      </c>
+      <c r="C93" s="7">
+        <v>23265</v>
+      </c>
+      <c r="D93" t="s">
+        <v>410</v>
+      </c>
+      <c r="E93" s="4">
+        <v>9116</v>
+      </c>
+      <c r="F93" s="6">
+        <v>6725</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B94" s="5">
+        <v>12605</v>
+      </c>
+      <c r="C94" s="7">
+        <v>27651</v>
+      </c>
+      <c r="D94" t="s">
+        <v>411</v>
+      </c>
+      <c r="E94" s="4">
+        <v>8056</v>
+      </c>
+      <c r="F94" s="6">
+        <v>21105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>412</v>
+      </c>
+      <c r="E95" s="4">
+        <v>15510</v>
+      </c>
+      <c r="F95" s="6">
+        <v>33263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>413</v>
+      </c>
+      <c r="E96" s="4">
+        <v>9559</v>
+      </c>
+      <c r="F96" s="6">
+        <v>9035</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>414</v>
+      </c>
+      <c r="E97" s="4">
+        <v>5791</v>
+      </c>
+      <c r="F97" s="6">
+        <v>5036</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>415</v>
+      </c>
+      <c r="E98" s="4">
+        <v>9525</v>
+      </c>
+      <c r="F98" s="6">
+        <v>12036</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D99" t="s">
+        <v>416</v>
+      </c>
+      <c r="E99" s="4">
+        <v>7914</v>
+      </c>
+      <c r="F99" s="6">
+        <v>30283</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>417</v>
+      </c>
+      <c r="E100" s="4">
+        <v>8674</v>
+      </c>
+      <c r="F100" s="6">
+        <v>72583</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>418</v>
+      </c>
+      <c r="E101" s="4">
+        <v>7474</v>
+      </c>
+      <c r="F101" s="6">
+        <v>11686</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>419</v>
+      </c>
+      <c r="E102" s="4">
+        <v>9209</v>
+      </c>
+      <c r="F102" s="6">
+        <v>49489</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D103" t="s">
+        <v>420</v>
+      </c>
+      <c r="E103" s="4">
+        <v>8630</v>
+      </c>
+      <c r="F103" s="6">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>421</v>
+      </c>
+      <c r="E104" s="4">
+        <v>7630</v>
+      </c>
+      <c r="F104" s="6">
+        <v>14803</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D105" t="s">
+        <v>422</v>
+      </c>
+      <c r="E105" s="4">
+        <v>7639</v>
+      </c>
+      <c r="F105" s="6">
+        <v>20353</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>423</v>
+      </c>
+      <c r="E106" s="4">
+        <v>8967</v>
+      </c>
+      <c r="F106" s="6">
+        <v>14716</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>424</v>
+      </c>
+      <c r="E107" s="4">
+        <v>12314</v>
+      </c>
+      <c r="F107" s="6">
+        <v>23867</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D108" t="s">
+        <v>425</v>
+      </c>
+      <c r="E108" s="4">
+        <v>13064</v>
+      </c>
+      <c r="F108" s="6">
+        <v>24824</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D109" t="s">
+        <v>426</v>
+      </c>
+      <c r="E109" s="4">
+        <v>10635</v>
+      </c>
+      <c r="F109" s="6">
+        <v>15145</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>427</v>
+      </c>
+      <c r="E110" s="4">
+        <v>10502</v>
+      </c>
+      <c r="F110" s="6">
+        <v>6801</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>428</v>
+      </c>
+      <c r="E111" s="4">
+        <v>9848</v>
+      </c>
+      <c r="F111" s="6">
+        <v>21146</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D112" t="s">
+        <v>429</v>
+      </c>
+      <c r="E112" s="4">
+        <v>9227</v>
+      </c>
+      <c r="F112" s="6">
+        <v>10940</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D113" t="s">
+        <v>430</v>
+      </c>
+      <c r="E113" s="4">
+        <v>10124</v>
+      </c>
+      <c r="F113" s="6">
+        <v>10361</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>431</v>
+      </c>
+      <c r="E114" s="4">
+        <v>10128</v>
+      </c>
+      <c r="F114" s="6">
+        <v>6090</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>432</v>
+      </c>
+      <c r="E115" s="4">
+        <v>11080</v>
+      </c>
+      <c r="F115" s="6">
+        <v>16557</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D116" t="s">
+        <v>433</v>
+      </c>
+      <c r="E116" s="4">
+        <v>11819</v>
+      </c>
+      <c r="F116" s="6">
+        <v>76673</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D117" t="s">
+        <v>434</v>
+      </c>
+      <c r="E117" s="4">
+        <v>9559</v>
+      </c>
+      <c r="F117" s="6">
+        <v>10441</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D118" t="s">
+        <v>435</v>
+      </c>
+      <c r="E118" s="4">
+        <v>6550</v>
+      </c>
+      <c r="F118" s="6">
+        <v>17468</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D119" t="s">
+        <v>436</v>
+      </c>
+      <c r="E119" s="4">
+        <v>10263</v>
+      </c>
+      <c r="F119" s="6">
+        <v>13955</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D120" t="s">
+        <v>437</v>
+      </c>
+      <c r="E120" s="4">
+        <v>8028</v>
+      </c>
+      <c r="F120" s="6">
+        <v>33326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>